--- a/app/data/appointments.xlsx
+++ b/app/data/appointments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1143,6 +1143,606 @@
       </c>
       <c r="P14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Yathis</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Kumar</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>nfn</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>60</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>yathiskumar2212@gmail.com</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>07010619957</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Yathis</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kumar</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>60</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>yathiskumar2212@gmail.com</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>07010619958</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Yathis</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Kumar</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>60</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>yathis2003@gmail.com</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>07010619957</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Cancelled by Doctor - No reason provided</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Yathis</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Kumar</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ea</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>60</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>yathis2003@gmail.com</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>07010619957</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Cancelled by Doctor - No reason provided</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Andrews</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>27-11-1958</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>megan.andrews@yahoo.com</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(021)306-8439x50918</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>yGpD-57008455</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>GRP-31559</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Andrews</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>27-11-1958</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>megan.andrews@yahoo.com</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(021)306-8439x50918</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>yGpD-57008455</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>GRP-31559</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>27-11-1958</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>60</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>yathis2003@gmail.com</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>07010619958</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>MBR-CCAB72</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>GRP-72446</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Cancelled by Doctor - fun</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Andrews</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>27-11-1958</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>megan.andrews@yahoo.com</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(021)306-8439x50918</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>yGpD-57008455</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>GRP-31559</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Andrews</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>27-11-1950</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>60</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>yathiskumar2212@gmail.com</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>7010619958</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>MBR-69568A</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>GRP-61081</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/appointments.xlsx
+++ b/app/data/appointments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,27 +518,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Johnny</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>Andrews</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2001-05-11</t>
+          <t>27-11-1958</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -549,40 +549,68 @@
       <c r="G2" t="n">
         <v>30</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>megan.andrews@yahoo.com</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(021)306-8439x50918</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>yGpD-57008455</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>GRP-31559</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Johnny</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>Andrews</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2001-05-11</t>
+          <t>27-11-1958</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -593,40 +621,68 @@
       <c r="G3" t="n">
         <v>30</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>megan.andrews@yahoo.com</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(021)306-8439x50918</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>yGpD-57008455</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>GRP-31559</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>yahs</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mksdmnk</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2003-12-12</t>
+          <t>27-11-1958</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -637,40 +693,68 @@
       <c r="G4" t="n">
         <v>60</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>yathis2003@gmail.com</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>07010619958</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>MBR-CCAB72</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>GRP-72446</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Cancelled by Doctor - fun</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>yahs</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mksdmnk</t>
+          <t>Andrews</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2003-12-12</t>
+          <t>27-11-1958</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -679,42 +763,70 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>megan.andrews@yahoo.com</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(021)306-8439x50918</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>yGpD-57008455</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>GRP-31559</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>yahs</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mksdmnk</t>
+          <t>Andrews</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2003-12-12</t>
+          <t>27-11-1950</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -725,40 +837,68 @@
       <c r="G6" t="n">
         <v>60</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>yathiskumar2212@gmail.com</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>7010619958</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MBR-69568A</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>GRP-61081</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>yahs</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mksdmnk</t>
+          <t>Andrews</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2003-12-12</t>
+          <t>27-11-1958</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -767,42 +907,70 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>megan.andrews@yahoo.com</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(021)306-8439x50918</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>yGpD-57008455</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>GRP-31559</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>yahs</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mksdmnk</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2003-12-12</t>
+          <t>27-11-1954</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -813,40 +981,68 @@
       <c r="G8" t="n">
         <v>60</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>yathis2003@gmail.com</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>9999999999</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nd</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>MBR-B5C9C6</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>GRP-54612</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Cancelled by Doctor - ju</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">sdm </t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> amd a</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>nfn</t>
+          <t>27-11-195</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -857,40 +1053,68 @@
       <c r="G9" t="n">
         <v>60</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>yathiskumr2212@gmail.com</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>7010619957</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>MBR-D3C69F</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>GRP-54459</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sn</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>a dm</t>
+          <t>Andrews</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ad </t>
+          <t>ad</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -901,40 +1125,68 @@
       <c r="G10" t="n">
         <v>60</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>qqq@gmail.com</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>7010619958</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>MBR-E3A107</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>GRP-99168</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>yagsh</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>njasndj</t>
+          <t>Andrews</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>jsdnjan</t>
+          <t>27-11-1950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -943,42 +1195,70 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>60</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>yathiskumar2212@gmail.com</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7010619958</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>MBR-69568A</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>GRP-61081</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> amd a</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nfn</t>
+          <t>Andrews</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>27-11-1951</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -989,40 +1269,68 @@
       <c r="G12" t="n">
         <v>60</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>yathiskumar@gmail.com</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>7010619957</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>MBR-3BEBF6</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>GRP-92585</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>aAa</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>1958-11-11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1035,27 +1343,27 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>yathiskumar2212@gmail.com</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>7010619957</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>MBR-51B7B8</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>GRP-78879</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1074,27 +1382,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>aAa</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Laa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>1958-11-11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1107,27 +1415,23 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>yathisladhak2003@gmail.com</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
+          <t>7010619954</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>MBR-B65D58</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>GRP-74965</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1138,610 +1442,10 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Cancelled by Doctor - some other</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Yathis</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Kumar</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>nfn</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Dr. Smith</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>60</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>yathiskumar2212@gmail.com</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>07010619957</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Scheduled</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Yathis</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Kumar</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Dr. Smith</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>60</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>yathiskumar2212@gmail.com</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>07010619958</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Scheduled</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Yathis</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Kumar</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>qq</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Dr. Smith</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>60</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>yathis2003@gmail.com</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>07010619957</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Cancelled by Doctor - No reason provided</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Yathis</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Kumar</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>ea</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Dr. Smith</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>60</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>yathis2003@gmail.com</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>07010619957</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Cancelled by Doctor - No reason provided</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Megan</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Andrews</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>27-11-1958</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Dr. Smith</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>30</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>megan.andrews@yahoo.com</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>(021)306-8439x50918</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Aetna</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>yGpD-57008455</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>GRP-31559</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Scheduled</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Megan</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Andrews</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>27-11-1958</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Dr. Smith</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>30</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>megan.andrews@yahoo.com</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>(021)306-8439x50918</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Aetna</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>yGpD-57008455</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>GRP-31559</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Scheduled</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Megan</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>27-11-1958</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Dr. Smith</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>60</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>yathis2003@gmail.com</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>07010619958</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>MBR-CCAB72</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>GRP-72446</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Cancelled by Doctor - fun</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Megan</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Andrews</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>27-11-1958</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Dr. Smith</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>30</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>megan.andrews@yahoo.com</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>(021)306-8439x50918</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Aetna</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>yGpD-57008455</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>GRP-31559</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Scheduled</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Megan</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Andrews</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>27-11-1950</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Dr. Smith</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>60</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>yathiskumar2212@gmail.com</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>7010619958</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>MBR-69568A</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>GRP-61081</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Scheduled</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
